--- a/Help.xlsx
+++ b/Help.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7593C0D-EE7C-4056-B283-934493DE55E2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA6FCA-82AB-4D12-84DA-991BC971D87F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{5740D95F-80E7-44B0-87D4-0F55F160A994}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{5740D95F-80E7-44B0-87D4-0F55F160A994}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4" sheetId="1" r:id="rId1"/>
+    <sheet name="3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="36">
   <si>
     <t>ShapeDrawable h1 = new ShapeDrawable(new RectShape());</t>
   </si>
@@ -502,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ECF691-0774-4488-9B2F-C1C7BE848477}">
   <dimension ref="B2:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" ref="L27:L47" si="4">H27+5</f>
+        <f t="shared" ref="L27" si="4">H27+5</f>
         <v>5</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -4578,6 +4579,3919 @@
       <c r="V95" t="str">
         <f t="shared" si="15"/>
         <v>walls.add(v21);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67521B4C-68BA-41C2-9283-87872E9FDD36}">
+  <dimension ref="B2:V97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="str">
+        <f>C5&amp;D5&amp;E5&amp;F5</f>
+        <v>ShapeDrawable h1 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="str">
+        <f>J5&amp;K5&amp;L5&amp;M5</f>
+        <v>ShapeDrawable v1 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>E5+1</f>
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G24" si="0">C6&amp;D6&amp;E6&amp;F6</f>
+        <v>ShapeDrawable h2 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <f>L5+1</f>
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N24" si="1">J6&amp;K6&amp;L6&amp;M6</f>
+        <v>ShapeDrawable v2 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E24" si="2">E6+1</f>
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h3 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L24" si="3">L6+1</f>
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v3 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h4 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v4 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h5 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v5 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h6 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v6 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h7 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v7 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h8 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v8 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h9 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v9 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h10 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v10 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h11 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v11 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h12 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v12 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h13 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v13 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h14 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v14 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h15 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v15 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h16 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v16 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h17 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v17 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h18 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v18 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h19 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v19 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeDrawable h20 = new ShapeDrawable(new RectShape());</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>ShapeDrawable v20 = new ShapeDrawable(new RectShape());</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>2600</v>
+      </c>
+      <c r="D25">
+        <v>1440</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2600</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" ref="L27" si="4">H27+5</f>
+        <v>5</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f>C27&amp;D27&amp;E27&amp;F27&amp;G27&amp;H27&amp;I27&amp;J27&amp;K27&amp;L27&amp;M27</f>
+        <v>h1.setBounds(0,0,2600,5);</v>
+      </c>
+      <c r="R27" t="s">
+        <v>14</v>
+      </c>
+      <c r="S27" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" t="str">
+        <f>R27&amp;S27&amp;T27&amp;U27</f>
+        <v>walls.add(h1);</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <f>D27+1</f>
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1950</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="2">
+        <v>500</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2600</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="2">
+        <f>H28+5</f>
+        <v>505</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" ref="N28:N47" si="5">C28&amp;D28&amp;E28&amp;F28&amp;G28&amp;H28&amp;I28&amp;J28&amp;K28&amp;L28&amp;M28</f>
+        <v>h2.setBounds(1950,500,2600,505);</v>
+      </c>
+      <c r="R28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <f>T27+1</f>
+        <v>2</v>
+      </c>
+      <c r="U28" t="s">
+        <v>8</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" ref="V28:V47" si="6">R28&amp;S28&amp;T28&amp;U28</f>
+        <v>walls.add(h2);</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D47" si="7">D28+1</f>
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2">
+        <f>2600-770</f>
+        <v>1830</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2">
+        <f>1440-210</f>
+        <v>1230</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="2">
+        <f>2600-430</f>
+        <v>2170</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" ref="L29:L47" si="8">H29+5</f>
+        <v>1235</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h3.setBounds(1830,1230,2170,1235);</v>
+      </c>
+      <c r="R29" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T29:T47" si="9">T28+1</f>
+        <v>3</v>
+      </c>
+      <c r="U29" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h3);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2">
+        <f>2600-1000</f>
+        <v>1600</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2">
+        <f>1440-520</f>
+        <v>920</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="2">
+        <f>2600-770</f>
+        <v>1830</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="8"/>
+        <v>925</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h4.setBounds(1600,920,1830,925);</v>
+      </c>
+      <c r="R30" t="s">
+        <v>14</v>
+      </c>
+      <c r="S30" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="U30" t="s">
+        <v>8</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h4);</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2">
+        <f>1600-340</f>
+        <v>1260</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2">
+        <f>1440-520</f>
+        <v>920</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="2">
+        <f>2600-1000</f>
+        <v>1600</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="8"/>
+        <v>925</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h5.setBounds(1260,920,1600,925);</v>
+      </c>
+      <c r="R31" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="U31" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h5);</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2">
+        <f>1260-340</f>
+        <v>920</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2">
+        <f>1440-520</f>
+        <v>920</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="2">
+        <f>1600-340</f>
+        <v>1260</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="8"/>
+        <v>925</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h6.setBounds(920,920,1260,925);</v>
+      </c>
+      <c r="R32" t="s">
+        <v>14</v>
+      </c>
+      <c r="S32" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U32" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h6);</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2">
+        <f>1440-520</f>
+        <v>920</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="2">
+        <f>1260-340</f>
+        <v>920</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="8"/>
+        <v>925</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h7.setBounds(0,920,920,925);</v>
+      </c>
+      <c r="R33" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" t="s">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U33" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h7);</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1440</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2600</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="8"/>
+        <v>1445</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h8.setBounds(0,1440,2600,1445);</v>
+      </c>
+      <c r="R34" t="s">
+        <v>14</v>
+      </c>
+      <c r="S34" t="s">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U34" t="s">
+        <v>8</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h8);</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2">
+        <v>180</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2">
+        <f>1440-750</f>
+        <v>690</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="2">
+        <f>440</f>
+        <v>440</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="8"/>
+        <v>695</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h9.setBounds(180,690,440,695);</v>
+      </c>
+      <c r="R35" t="s">
+        <v>14</v>
+      </c>
+      <c r="S35" t="s">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U35" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h9);</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2">
+        <f>J35</f>
+        <v>440</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="2">
+        <f>1440-750</f>
+        <v>690</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="2">
+        <f>F36+570</f>
+        <v>1010</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="8"/>
+        <v>695</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h10.setBounds(440,690,1010,695);</v>
+      </c>
+      <c r="R36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" t="s">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="U36" t="s">
+        <v>8</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h10);</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2">
+        <f>J36</f>
+        <v>1010</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2">
+        <f>1440-750</f>
+        <v>690</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="2">
+        <f>F37+230</f>
+        <v>1240</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="8"/>
+        <v>695</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h11.setBounds(1010,690,1240,695);</v>
+      </c>
+      <c r="R37" t="s">
+        <v>14</v>
+      </c>
+      <c r="S37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="U37" t="s">
+        <v>8</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h11);</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="2">
+        <f>J37</f>
+        <v>1240</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="2">
+        <f>1440-750</f>
+        <v>690</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="2">
+        <f>F38+580</f>
+        <v>1820</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="8"/>
+        <v>695</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h12.setBounds(1240,690,1820,695);</v>
+      </c>
+      <c r="R38" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="U38" t="s">
+        <v>8</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h12);</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="R39" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39" t="s">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="U39" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h13);</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="R40" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" t="s">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="U40" t="s">
+        <v>8</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h14);</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="2">
+        <v>130</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="2">
+        <v>440</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h1.setBounds(0,130,440,135);</v>
+      </c>
+      <c r="R41" t="s">
+        <v>14</v>
+      </c>
+      <c r="S41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="U41" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h15);</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2">
+        <f>J42-440</f>
+        <v>1380</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2">
+        <v>130</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="2">
+        <f>2600-780</f>
+        <v>1820</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h2.setBounds(1380,130,1820,135);</v>
+      </c>
+      <c r="R42" t="s">
+        <v>14</v>
+      </c>
+      <c r="S42" t="s">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="U42" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h16);</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>580</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="2">
+        <v>270</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="2">
+        <f>F43+430</f>
+        <v>1010</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h3.setBounds(580,270,1010,275);</v>
+      </c>
+      <c r="R43" t="s">
+        <v>14</v>
+      </c>
+      <c r="S43" t="s">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="U43" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h17);</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2">
+        <f>J43</f>
+        <v>1010</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="2">
+        <f>H43</f>
+        <v>270</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="2">
+        <f>F44+230</f>
+        <v>1240</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h4.setBounds(1010,270,1240,275);</v>
+      </c>
+      <c r="R44" t="s">
+        <v>14</v>
+      </c>
+      <c r="S44" t="s">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="U44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h18);</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2">
+        <f>J44</f>
+        <v>1240</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2">
+        <f>H44</f>
+        <v>270</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="2">
+        <f>F45+140</f>
+        <v>1380</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h5.setBounds(1240,270,1380,275);</v>
+      </c>
+      <c r="R45" t="s">
+        <v>14</v>
+      </c>
+      <c r="S45" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="U45" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h19);</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2">
+        <v>440</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="2">
+        <f>1440-1120</f>
+        <v>320</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="2">
+        <f>F46+140</f>
+        <v>580</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h6.setBounds(440,320,580,325);</v>
+      </c>
+      <c r="R46" t="s">
+        <v>14</v>
+      </c>
+      <c r="S46" t="s">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="U46" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h20);</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2">
+        <f>1440-920</f>
+        <v>520</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="2">
+        <f>F47+440</f>
+        <v>440</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="8"/>
+        <v>525</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>h7.setBounds(0,520,440,525);</v>
+      </c>
+      <c r="R47" t="s">
+        <v>14</v>
+      </c>
+      <c r="S47" t="s">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="U47" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="6"/>
+        <v>walls.add(h21);</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>2600</v>
+      </c>
+      <c r="K51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>8</v>
+      </c>
+      <c r="N51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>1950</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>500</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>2600</v>
+      </c>
+      <c r="K52" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>505</v>
+      </c>
+      <c r="M52" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>1830</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>1230</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>2170</v>
+      </c>
+      <c r="K53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53">
+        <v>1235</v>
+      </c>
+      <c r="M53" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>1600</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54">
+        <v>920</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>1830</v>
+      </c>
+      <c r="K54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54">
+        <v>925</v>
+      </c>
+      <c r="M54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>1260</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <v>920</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <v>1600</v>
+      </c>
+      <c r="K55" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55">
+        <v>925</v>
+      </c>
+      <c r="M55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>920</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56">
+        <v>920</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>1260</v>
+      </c>
+      <c r="K56" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56">
+        <v>925</v>
+      </c>
+      <c r="M56" t="s">
+        <v>8</v>
+      </c>
+      <c r="N56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>920</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <v>920</v>
+      </c>
+      <c r="K57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <v>925</v>
+      </c>
+      <c r="M57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>1440</v>
+      </c>
+      <c r="I58" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58">
+        <v>2600</v>
+      </c>
+      <c r="K58" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58">
+        <v>1445</v>
+      </c>
+      <c r="M58" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>180</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>690</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <v>440</v>
+      </c>
+      <c r="K59" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59">
+        <v>695</v>
+      </c>
+      <c r="M59" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>440</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>690</v>
+      </c>
+      <c r="I60" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60">
+        <f>J67</f>
+        <v>800</v>
+      </c>
+      <c r="K60" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60">
+        <v>695</v>
+      </c>
+      <c r="M60" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>1010</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <v>690</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <v>1240</v>
+      </c>
+      <c r="K61" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61">
+        <v>695</v>
+      </c>
+      <c r="M61" t="s">
+        <v>8</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>1240</v>
+      </c>
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62">
+        <v>690</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62">
+        <v>1820</v>
+      </c>
+      <c r="K62" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62">
+        <v>695</v>
+      </c>
+      <c r="M62" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>1380</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66">
+        <v>130</v>
+      </c>
+      <c r="I66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>1820</v>
+      </c>
+      <c r="K66" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66">
+        <v>135</v>
+      </c>
+      <c r="M66" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>580</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67">
+        <v>270</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <f>F67+220</f>
+        <v>800</v>
+      </c>
+      <c r="K67" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>275</v>
+      </c>
+      <c r="M67" t="s">
+        <v>8</v>
+      </c>
+      <c r="N67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>1010</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68">
+        <v>270</v>
+      </c>
+      <c r="I68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>1240</v>
+      </c>
+      <c r="K68" t="s">
+        <v>7</v>
+      </c>
+      <c r="L68">
+        <v>275</v>
+      </c>
+      <c r="M68" t="s">
+        <v>8</v>
+      </c>
+      <c r="N68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>1240</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>270</v>
+      </c>
+      <c r="I69" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69">
+        <v>1380</v>
+      </c>
+      <c r="K69" t="s">
+        <v>7</v>
+      </c>
+      <c r="L69">
+        <v>275</v>
+      </c>
+      <c r="M69" t="s">
+        <v>8</v>
+      </c>
+      <c r="N69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>440</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70">
+        <v>320</v>
+      </c>
+      <c r="I70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>580</v>
+      </c>
+      <c r="K70" t="s">
+        <v>7</v>
+      </c>
+      <c r="L70">
+        <v>325</v>
+      </c>
+      <c r="M70" t="s">
+        <v>8</v>
+      </c>
+      <c r="N70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>560</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71">
+        <v>520</v>
+      </c>
+      <c r="I71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71">
+        <v>180</v>
+      </c>
+      <c r="K71" t="s">
+        <v>7</v>
+      </c>
+      <c r="L71">
+        <v>525</v>
+      </c>
+      <c r="M71" t="s">
+        <v>8</v>
+      </c>
+      <c r="N71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75" s="2">
+        <f>F75+5</f>
+        <v>5</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1440</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N75" s="2" t="str">
+        <f t="shared" ref="N75:N95" si="10">C75&amp;D75&amp;E75&amp;F75&amp;G75&amp;H75&amp;I75&amp;J75&amp;K75&amp;L75&amp;M75</f>
+        <v>v1.setBounds(0,0,5,1440);</v>
+      </c>
+      <c r="R75" t="s">
+        <v>14</v>
+      </c>
+      <c r="S75" t="s">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75" t="s">
+        <v>8</v>
+      </c>
+      <c r="V75" t="str">
+        <f>R75&amp;S75&amp;T75&amp;U75</f>
+        <v>walls.add(v1);</v>
+      </c>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2600</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" s="2">
+        <f>F76+5</f>
+        <v>2605</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1440</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v2.setBounds(2600,0,2605,1440);</v>
+      </c>
+      <c r="R76" t="s">
+        <v>14</v>
+      </c>
+      <c r="S76" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76">
+        <f>T75+1</f>
+        <v>2</v>
+      </c>
+      <c r="U76" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" t="str">
+        <f t="shared" ref="V76:V95" si="11">R76&amp;S76&amp;T76&amp;U76</f>
+        <v>walls.add(v2);</v>
+      </c>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="2">
+        <f>2600-430</f>
+        <v>2170</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="2">
+        <v>500</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" ref="J77:J97" si="12">F77+5</f>
+        <v>2175</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L77" s="2">
+        <f>H77+350</f>
+        <v>850</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N77" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v3.setBounds(2170,500,2175,850);</v>
+      </c>
+      <c r="R77" t="s">
+        <v>14</v>
+      </c>
+      <c r="S77" t="s">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <f t="shared" ref="T77:T95" si="13">T76+1</f>
+        <v>3</v>
+      </c>
+      <c r="U77" t="s">
+        <v>8</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v3);</v>
+      </c>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="2">
+        <f>F77</f>
+        <v>2170</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="2">
+        <f>L77</f>
+        <v>850</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="12"/>
+        <v>2175</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L78" s="2">
+        <f>H78+230</f>
+        <v>1080</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N78" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v4.setBounds(2170,850,2175,1080);</v>
+      </c>
+      <c r="R78" t="s">
+        <v>14</v>
+      </c>
+      <c r="S78" t="s">
+        <v>4</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="U78" t="s">
+        <v>8</v>
+      </c>
+      <c r="V78" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v4);</v>
+      </c>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2">
+        <v>5</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="2">
+        <f>F78</f>
+        <v>2170</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="2">
+        <f>L78</f>
+        <v>1080</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="12"/>
+        <v>2175</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L79" s="2">
+        <f>1440</f>
+        <v>1440</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N79" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v5.setBounds(2170,1080,2175,1440);</v>
+      </c>
+      <c r="R79" t="s">
+        <v>14</v>
+      </c>
+      <c r="S79" t="s">
+        <v>4</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="U79" t="s">
+        <v>8</v>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v5);</v>
+      </c>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2">
+        <v>6</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="2">
+        <f>2600-780</f>
+        <v>1820</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="2">
+        <v>130</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="12"/>
+        <v>1825</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="2">
+        <v>695</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N80" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v6.setBounds(1820,130,1825,695);</v>
+      </c>
+      <c r="R80" t="s">
+        <v>14</v>
+      </c>
+      <c r="S80" t="s">
+        <v>4</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="U80" t="s">
+        <v>8</v>
+      </c>
+      <c r="V80" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v6);</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2">
+        <v>7</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="2">
+        <f>2600-770</f>
+        <v>1830</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="2">
+        <f>1440-520</f>
+        <v>920</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="12"/>
+        <v>1835</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1440</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v7.setBounds(1830,920,1835,1440);</v>
+      </c>
+      <c r="R81" t="s">
+        <v>14</v>
+      </c>
+      <c r="S81" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U81" t="s">
+        <v>8</v>
+      </c>
+      <c r="V81" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v7);</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="R82" t="s">
+        <v>14</v>
+      </c>
+      <c r="S82" t="s">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U82" t="s">
+        <v>8</v>
+      </c>
+      <c r="V82" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v8);</v>
+      </c>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="R83" t="s">
+        <v>14</v>
+      </c>
+      <c r="S83" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U83" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v9);</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="R84" t="s">
+        <v>14</v>
+      </c>
+      <c r="S84" t="s">
+        <v>4</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="U84" t="s">
+        <v>8</v>
+      </c>
+      <c r="V84" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v10);</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="2">
+        <v>440</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="12"/>
+        <v>445</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L85" s="2">
+        <f>L86</f>
+        <v>690</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N85" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v11.setBounds(440,0,445,690);</v>
+      </c>
+      <c r="R85" t="s">
+        <v>14</v>
+      </c>
+      <c r="S85" t="s">
+        <v>4</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="U85" t="s">
+        <v>8</v>
+      </c>
+      <c r="V85" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v11);</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2">
+        <v>12</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="2">
+        <v>580</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="2">
+        <v>270</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="12"/>
+        <v>585</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L86" s="2">
+        <f>1440-750</f>
+        <v>690</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N86" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v12.setBounds(580,270,585,690);</v>
+      </c>
+      <c r="R86" t="s">
+        <v>14</v>
+      </c>
+      <c r="S86" t="s">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="U86" t="s">
+        <v>8</v>
+      </c>
+      <c r="V86" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v12);</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="2">
+        <f>2600-1590</f>
+        <v>1010</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="2">
+        <v>270</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="12"/>
+        <v>1015</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" s="2">
+        <f>H87+420</f>
+        <v>690</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N87" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v13.setBounds(1010,270,1015,690);</v>
+      </c>
+      <c r="R87" t="s">
+        <v>14</v>
+      </c>
+      <c r="S87" t="s">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="U87" t="s">
+        <v>8</v>
+      </c>
+      <c r="V87" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v13);</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2">
+        <v>14</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="2">
+        <f>F87+230</f>
+        <v>1240</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="2">
+        <f>H87</f>
+        <v>270</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="12"/>
+        <v>1245</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L88" s="2">
+        <f>L87</f>
+        <v>690</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N88" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v14.setBounds(1240,270,1245,690);</v>
+      </c>
+      <c r="R88" t="s">
+        <v>14</v>
+      </c>
+      <c r="S88" t="s">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="U88" t="s">
+        <v>8</v>
+      </c>
+      <c r="V88" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v14);</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2">
+        <v>15</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="2">
+        <f>F88+140</f>
+        <v>1380</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="2">
+        <v>130</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="12"/>
+        <v>1385</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="2">
+        <f>L88</f>
+        <v>690</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v15.setBounds(1380,130,1385,690);</v>
+      </c>
+      <c r="R89" t="s">
+        <v>14</v>
+      </c>
+      <c r="S89" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="U89" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v15);</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2">
+        <v>16</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1950</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="12"/>
+        <v>1955</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L90" s="2">
+        <v>500</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N90" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>v16.setBounds(1950,0,1955,500);</v>
+      </c>
+      <c r="R90" t="s">
+        <v>14</v>
+      </c>
+      <c r="S90" t="s">
+        <v>4</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="U90" t="s">
+        <v>8</v>
+      </c>
+      <c r="V90" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v16);</v>
+      </c>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>440</v>
+      </c>
+      <c r="G91" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91">
+        <v>270</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="12"/>
+        <v>445</v>
+      </c>
+      <c r="K91" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91">
+        <v>275</v>
+      </c>
+      <c r="M91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="10"/>
+        <v>v17.setBounds(440,270,445,275);</v>
+      </c>
+      <c r="R91" t="s">
+        <v>14</v>
+      </c>
+      <c r="S91" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="U91" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v17);</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <v>1010</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92">
+        <v>270</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="12"/>
+        <v>1015</v>
+      </c>
+      <c r="K92" t="s">
+        <v>7</v>
+      </c>
+      <c r="L92">
+        <v>275</v>
+      </c>
+      <c r="M92" t="s">
+        <v>8</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="10"/>
+        <v>v18.setBounds(1010,270,1015,275);</v>
+      </c>
+      <c r="R92" t="s">
+        <v>14</v>
+      </c>
+      <c r="S92" t="s">
+        <v>4</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="U92" t="s">
+        <v>8</v>
+      </c>
+      <c r="V92" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v18);</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>1240</v>
+      </c>
+      <c r="G93" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93">
+        <v>270</v>
+      </c>
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="12"/>
+        <v>1245</v>
+      </c>
+      <c r="K93" t="s">
+        <v>7</v>
+      </c>
+      <c r="L93">
+        <v>275</v>
+      </c>
+      <c r="M93" t="s">
+        <v>8</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="10"/>
+        <v>v19.setBounds(1240,270,1245,275);</v>
+      </c>
+      <c r="R93" t="s">
+        <v>14</v>
+      </c>
+      <c r="S93" t="s">
+        <v>4</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="U93" t="s">
+        <v>8</v>
+      </c>
+      <c r="V93" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v19);</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>440</v>
+      </c>
+      <c r="G94" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94">
+        <v>320</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="12"/>
+        <v>445</v>
+      </c>
+      <c r="K94" t="s">
+        <v>7</v>
+      </c>
+      <c r="L94">
+        <v>325</v>
+      </c>
+      <c r="M94" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="10"/>
+        <v>v20.setBounds(440,320,445,325);</v>
+      </c>
+      <c r="R94" t="s">
+        <v>14</v>
+      </c>
+      <c r="S94" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="U94" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v20);</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95">
+        <v>520</v>
+      </c>
+      <c r="I95" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="K95" t="s">
+        <v>7</v>
+      </c>
+      <c r="L95">
+        <v>525</v>
+      </c>
+      <c r="M95" t="s">
+        <v>8</v>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" si="10"/>
+        <v>v21.setBounds(0,520,5,525);</v>
+      </c>
+      <c r="R95" t="s">
+        <v>14</v>
+      </c>
+      <c r="S95" t="s">
+        <v>4</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="U95" t="s">
+        <v>8</v>
+      </c>
+      <c r="V95" t="str">
+        <f t="shared" si="11"/>
+        <v>walls.add(v21);</v>
+      </c>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96">
+        <v>180</v>
+      </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96">
+        <v>520</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="12"/>
+        <v>185</v>
+      </c>
+      <c r="K96" t="s">
+        <v>7</v>
+      </c>
+      <c r="L96">
+        <f>H96+330</f>
+        <v>850</v>
+      </c>
+      <c r="M96" t="s">
+        <v>8</v>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" ref="N96" si="14">C96&amp;D96&amp;E96&amp;F96&amp;G96&amp;H96&amp;I96&amp;J96&amp;K96&amp;L96&amp;M96</f>
+        <v>v22.setBounds(180,520,185,850);</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>23</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>580</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97">
+        <v>270</v>
+      </c>
+      <c r="I97" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="12"/>
+        <v>585</v>
+      </c>
+      <c r="K97" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97">
+        <f>H97+420</f>
+        <v>690</v>
+      </c>
+      <c r="M97" t="s">
+        <v>8</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" ref="N97" si="15">C97&amp;D97&amp;E97&amp;F97&amp;G97&amp;H97&amp;I97&amp;J97&amp;K97&amp;L97&amp;M97</f>
+        <v>v23.setBounds(580,270,585,690);</v>
       </c>
     </row>
   </sheetData>
